--- a/meus_resultados_promethee.xlsx
+++ b/meus_resultados_promethee.xlsx
@@ -31,10 +31,13 @@
     <t>Sweden</t>
   </si>
   <si>
+    <t>Finland</t>
+  </si>
+  <si>
     <t>Switzerland</t>
   </si>
   <si>
-    <t>Finland</t>
+    <t>New Zealand</t>
   </si>
   <si>
     <t>Netherlands</t>
@@ -43,51 +46,48 @@
     <t>Luxembourg</t>
   </si>
   <si>
+    <t>Iceland</t>
+  </si>
+  <si>
     <t>Germany</t>
   </si>
   <si>
-    <t>Iceland</t>
-  </si>
-  <si>
-    <t>New Zealand</t>
-  </si>
-  <si>
     <t>Austria</t>
   </si>
   <si>
+    <t>Ireland</t>
+  </si>
+  <si>
     <t>United Kingdom</t>
   </si>
   <si>
-    <t>Ireland</t>
-  </si>
-  <si>
     <t>Australia</t>
   </si>
   <si>
     <t>Canada</t>
   </si>
   <si>
+    <t>Estonia</t>
+  </si>
+  <si>
     <t>Singapore</t>
   </si>
   <si>
-    <t>Estonia</t>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>United States</t>
+  </si>
+  <si>
+    <t>France</t>
   </si>
   <si>
     <t>Hong Kong</t>
   </si>
   <si>
-    <t>Japan</t>
-  </si>
-  <si>
     <t>Taiwan, China</t>
   </si>
   <si>
-    <t>France</t>
-  </si>
-  <si>
-    <t>United States</t>
-  </si>
-  <si>
     <t>Belgium</t>
   </si>
   <si>
@@ -97,384 +97,384 @@
     <t>Spain</t>
   </si>
   <si>
+    <t>Malta</t>
+  </si>
+  <si>
     <t>Czechia</t>
   </si>
   <si>
-    <t>Malta</t>
-  </si>
-  <si>
     <t>Portugal</t>
   </si>
   <si>
+    <t>Latvia</t>
+  </si>
+  <si>
+    <t>South Korea</t>
+  </si>
+  <si>
+    <t>Lithuania</t>
+  </si>
+  <si>
     <t>Italy</t>
   </si>
   <si>
-    <t>South Korea</t>
+    <t>Israel</t>
   </si>
   <si>
     <t>Slovakia</t>
   </si>
   <si>
-    <t>Latvia</t>
+    <t>Cyprus</t>
   </si>
   <si>
     <t>Poland</t>
   </si>
   <si>
-    <t>Israel</t>
-  </si>
-  <si>
-    <t>Lithuania</t>
-  </si>
-  <si>
-    <t>Cyprus</t>
+    <t>Chile</t>
+  </si>
+  <si>
+    <t>Costa Rica</t>
   </si>
   <si>
     <t>Uruguay</t>
   </si>
   <si>
-    <t>Costa Rica</t>
-  </si>
-  <si>
-    <t>Chile</t>
+    <t>Croatia</t>
   </si>
   <si>
     <t>Malaysia</t>
   </si>
   <si>
+    <t>United Arab Emirates</t>
+  </si>
+  <si>
     <t>Hungary</t>
   </si>
   <si>
-    <t>Croatia</t>
-  </si>
-  <si>
-    <t>United Arab Emirates</t>
-  </si>
-  <si>
     <t>Qatar</t>
   </si>
   <si>
+    <t>Greece</t>
+  </si>
+  <si>
+    <t>Mauritius</t>
+  </si>
+  <si>
     <t>Romania</t>
   </si>
   <si>
-    <t>Mauritius</t>
-  </si>
-  <si>
-    <t>Greece</t>
-  </si>
-  <si>
     <t>Bulgaria</t>
   </si>
   <si>
+    <t>Montenegro</t>
+  </si>
+  <si>
+    <t>Panama</t>
+  </si>
+  <si>
     <t>Seychelles</t>
   </si>
   <si>
-    <t>Panama</t>
-  </si>
-  <si>
-    <t>Montenegro</t>
-  </si>
-  <si>
     <t>China</t>
   </si>
   <si>
+    <t>Serbia</t>
+  </si>
+  <si>
     <t>Georgia</t>
   </si>
   <si>
     <t>Armenia</t>
   </si>
   <si>
+    <t>Bahrain</t>
+  </si>
+  <si>
     <t>Kuwait</t>
   </si>
   <si>
-    <t>Serbia</t>
-  </si>
-  <si>
-    <t>Bahrain</t>
+    <t>Indonesia</t>
+  </si>
+  <si>
+    <t>North Macedonia</t>
+  </si>
+  <si>
+    <t>Peru</t>
+  </si>
+  <si>
+    <t>Argentina</t>
   </si>
   <si>
     <t>Thailand</t>
   </si>
   <si>
-    <t>Indonesia</t>
-  </si>
-  <si>
-    <t>Peru</t>
-  </si>
-  <si>
-    <t>North Macedonia</t>
-  </si>
-  <si>
-    <t>Argentina</t>
+    <t>Trinidad and Tobago</t>
+  </si>
+  <si>
+    <t>Kazakhstan</t>
+  </si>
+  <si>
+    <t>Belarus</t>
+  </si>
+  <si>
+    <t>Jamaica</t>
   </si>
   <si>
     <t>Oman</t>
   </si>
   <si>
-    <t>Trinidad and Tobago</t>
-  </si>
-  <si>
-    <t>Kazakhstan</t>
-  </si>
-  <si>
-    <t>Belarus</t>
+    <t>Brazil</t>
+  </si>
+  <si>
+    <t>Mexico</t>
   </si>
   <si>
     <t>Russia</t>
   </si>
   <si>
+    <t>Albania</t>
+  </si>
+  <si>
+    <t>Saudi Arabia</t>
+  </si>
+  <si>
+    <t>Vietnam</t>
+  </si>
+  <si>
+    <t>Moldova</t>
+  </si>
+  <si>
+    <t>Dominican Republic</t>
+  </si>
+  <si>
     <t>Colombia</t>
   </si>
   <si>
-    <t>Mexico</t>
-  </si>
-  <si>
-    <t>Albania</t>
-  </si>
-  <si>
-    <t>Vietnam</t>
-  </si>
-  <si>
-    <t>Saudi Arabia</t>
-  </si>
-  <si>
-    <t>Dominican Republic</t>
-  </si>
-  <si>
-    <t>Jamaica</t>
-  </si>
-  <si>
-    <t>Brazil</t>
-  </si>
-  <si>
-    <t>Moldova</t>
+    <t>Bosnia and Herzegovina</t>
   </si>
   <si>
     <t>Paraguay</t>
   </si>
   <si>
+    <t>Ukraine</t>
+  </si>
+  <si>
+    <t>Cabo Verde</t>
+  </si>
+  <si>
+    <t>Philippines</t>
+  </si>
+  <si>
+    <t>Jordan</t>
+  </si>
+  <si>
+    <t>Azerbaijan</t>
+  </si>
+  <si>
+    <t>Botswana</t>
+  </si>
+  <si>
+    <t>Ecuador</t>
+  </si>
+  <si>
     <t>Sri Lanka</t>
   </si>
   <si>
-    <t>Philippines</t>
-  </si>
-  <si>
-    <t>Cabo Verde</t>
+    <t>Suriname</t>
+  </si>
+  <si>
+    <t>Turkey</t>
   </si>
   <si>
     <t>South Africa</t>
   </si>
   <si>
-    <t>Suriname</t>
-  </si>
-  <si>
-    <t>Ukraine</t>
+    <t>Mongolia</t>
+  </si>
+  <si>
+    <t>Kyrgyzstan</t>
+  </si>
+  <si>
+    <t>Morocco</t>
   </si>
   <si>
     <t>Namibia</t>
   </si>
   <si>
-    <t>Jordan</t>
-  </si>
-  <si>
-    <t>Botswana</t>
-  </si>
-  <si>
-    <t>Bosnia and Herzegovina</t>
-  </si>
-  <si>
-    <t>Kyrgyzstan</t>
-  </si>
-  <si>
-    <t>Mongolia</t>
-  </si>
-  <si>
     <t>Guyana</t>
   </si>
   <si>
-    <t>Turkey</t>
-  </si>
-  <si>
-    <t>Ecuador</t>
-  </si>
-  <si>
-    <t>Azerbaijan</t>
+    <t>Belize</t>
+  </si>
+  <si>
+    <t>El Salvador</t>
+  </si>
+  <si>
+    <t>Tunisia</t>
   </si>
   <si>
     <t>São Tomé and Príncipe</t>
   </si>
   <si>
-    <t>Morocco</t>
+    <t>Uzbekistan</t>
   </si>
   <si>
     <t>Rwanda</t>
   </si>
   <si>
-    <t>Uzbekistan</t>
+    <t>Ghana</t>
   </si>
   <si>
     <t>Cuba</t>
   </si>
   <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Guatemala</t>
+  </si>
+  <si>
+    <t>Turkmenistan</t>
+  </si>
+  <si>
     <t>Senegal</t>
   </si>
   <si>
-    <t>Belize</t>
-  </si>
-  <si>
-    <t>Ghana</t>
-  </si>
-  <si>
-    <t>India</t>
-  </si>
-  <si>
-    <t>Guatemala</t>
-  </si>
-  <si>
-    <t>El Salvador</t>
-  </si>
-  <si>
-    <t>Turkmenistan</t>
-  </si>
-  <si>
-    <t>Tunisia</t>
+    <t>Tajikistan</t>
+  </si>
+  <si>
+    <t>Bolivia</t>
+  </si>
+  <si>
+    <t>Algeria</t>
   </si>
   <si>
     <t>Honduras</t>
   </si>
   <si>
+    <t>Lebanon</t>
+  </si>
+  <si>
     <t>Kenya</t>
   </si>
   <si>
+    <t>Nicaragua</t>
+  </si>
+  <si>
+    <t>Laos</t>
+  </si>
+  <si>
+    <t>Nepal</t>
+  </si>
+  <si>
     <t>The Gambia</t>
   </si>
   <si>
-    <t>Tajikistan</t>
-  </si>
-  <si>
-    <t>Bolivia</t>
-  </si>
-  <si>
     <t>Tanzania</t>
   </si>
   <si>
-    <t>Nicaragua</t>
-  </si>
-  <si>
-    <t>Laos</t>
-  </si>
-  <si>
     <t>Cambodia</t>
   </si>
   <si>
-    <t>Lebanon</t>
-  </si>
-  <si>
-    <t>Algeria</t>
+    <t>Egypt</t>
+  </si>
+  <si>
+    <t>Benin</t>
+  </si>
+  <si>
+    <t>Côte d'Ivoire</t>
+  </si>
+  <si>
+    <t>Iran</t>
   </si>
   <si>
     <t>Zambia</t>
   </si>
   <si>
-    <t>Nepal</t>
-  </si>
-  <si>
-    <t>Benin</t>
+    <t>Djibouti</t>
   </si>
   <si>
     <t>Papua New Guinea</t>
   </si>
   <si>
+    <t>Malawi</t>
+  </si>
+  <si>
+    <t>Bangladesh</t>
+  </si>
+  <si>
+    <t>Gabon</t>
+  </si>
+  <si>
+    <t>Comoros</t>
+  </si>
+  <si>
+    <t>Uganda</t>
+  </si>
+  <si>
+    <t>Myanmar</t>
+  </si>
+  <si>
     <t>Equatorial Guinea</t>
   </si>
   <si>
-    <t>Myanmar</t>
-  </si>
-  <si>
-    <t>Côte d'Ivoire</t>
-  </si>
-  <si>
-    <t>Djibouti</t>
-  </si>
-  <si>
-    <t>Malawi</t>
-  </si>
-  <si>
-    <t>Iran</t>
-  </si>
-  <si>
-    <t>Egypt</t>
-  </si>
-  <si>
-    <t>Uganda</t>
-  </si>
-  <si>
-    <t>Bangladesh</t>
-  </si>
-  <si>
-    <t>Comoros</t>
-  </si>
-  <si>
     <t>Burkina Faso</t>
   </si>
   <si>
-    <t>Gabon</t>
+    <t>Eswatini</t>
+  </si>
+  <si>
+    <t>Madagascar</t>
   </si>
   <si>
     <t>Liberia</t>
   </si>
   <si>
-    <t>Madagascar</t>
-  </si>
-  <si>
     <t>Guinea</t>
   </si>
   <si>
-    <t>Eswatini</t>
+    <t>Lesotho</t>
+  </si>
+  <si>
+    <t>Iraq</t>
+  </si>
+  <si>
+    <t>Togo</t>
+  </si>
+  <si>
+    <t>Sierra Leone</t>
+  </si>
+  <si>
+    <t>Venezuela</t>
   </si>
   <si>
     <t>Niger</t>
   </si>
   <si>
-    <t>Sierra Leone</t>
-  </si>
-  <si>
-    <t>Venezuela</t>
-  </si>
-  <si>
-    <t>Lesotho</t>
+    <t>Mozambique</t>
+  </si>
+  <si>
+    <t>Pakistan</t>
+  </si>
+  <si>
+    <t>Nigeria</t>
+  </si>
+  <si>
+    <t>Guinea-Bissau</t>
   </si>
   <si>
     <t>Ethiopia</t>
   </si>
   <si>
-    <t>Mozambique</t>
-  </si>
-  <si>
-    <t>Pakistan</t>
-  </si>
-  <si>
-    <t>Iraq</t>
-  </si>
-  <si>
-    <t>Nigeria</t>
-  </si>
-  <si>
-    <t>Togo</t>
-  </si>
-  <si>
-    <t>Guinea-Bissau</t>
+    <t>Zimbabwe</t>
+  </si>
+  <si>
+    <t>Mali</t>
   </si>
   <si>
     <t>Cameroon</t>
   </si>
   <si>
-    <t>Mali</t>
-  </si>
-  <si>
-    <t>Zimbabwe</t>
-  </si>
-  <si>
     <t>Libya</t>
   </si>
   <si>
@@ -487,15 +487,15 @@
     <t>Burundi</t>
   </si>
   <si>
+    <t>Haiti</t>
+  </si>
+  <si>
+    <t>Angola</t>
+  </si>
+  <si>
     <t>Syria</t>
   </si>
   <si>
-    <t>Haiti</t>
-  </si>
-  <si>
-    <t>Angola</t>
-  </si>
-  <si>
     <t>Sudan</t>
   </si>
   <si>
@@ -505,16 +505,16 @@
     <t>Somalia</t>
   </si>
   <si>
+    <t>Eritrea</t>
+  </si>
+  <si>
+    <t>Chad</t>
+  </si>
+  <si>
+    <t>Afghanistan</t>
+  </si>
+  <si>
     <t>Central African Republic</t>
-  </si>
-  <si>
-    <t>Chad</t>
-  </si>
-  <si>
-    <t>Afghanistan</t>
-  </si>
-  <si>
-    <t>Eritrea</t>
   </si>
   <si>
     <t>Yemen</t>
@@ -897,7 +897,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>0.9408969210174029</v>
+        <v>0.7522510040160643</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -905,7 +905,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>0.9291834002677376</v>
+        <v>0.7491586345381526</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -913,7 +913,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>0.9225903614457832</v>
+        <v>0.747539825970549</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -921,7 +921,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>0.9203145917001339</v>
+        <v>0.7427111780455153</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -929,7 +929,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>0.9137215528781795</v>
+        <v>0.7346867469879518</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -937,7 +937,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>0.9091365461847392</v>
+        <v>0.7059039491298528</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -945,7 +945,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>0.8677376171352075</v>
+        <v>0.7044471218206158</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -953,7 +953,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>0.8539825970548862</v>
+        <v>0.6897858099062919</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -961,7 +961,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>0.8401606425702812</v>
+        <v>0.6850809906291835</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -969,7 +969,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>0.8354417670682731</v>
+        <v>0.6838845381526104</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -977,7 +977,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>0.8211512717536815</v>
+        <v>0.6804139892904953</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -985,7 +985,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>0.8194109772423028</v>
+        <v>0.6634357429718877</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -993,7 +993,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>0.817235609103079</v>
+        <v>0.6591492637215529</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1001,7 +1001,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>0.7881191432396253</v>
+        <v>0.6519785809906291</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1009,7 +1009,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>0.7872155287817939</v>
+        <v>0.6497593708165998</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1017,7 +1017,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>0.7650602409638555</v>
+        <v>0.6361214859437752</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1025,7 +1025,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>0.7643908969210172</v>
+        <v>0.6133269745649265</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1033,7 +1033,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>0.7335006693440428</v>
+        <v>0.5997141900937082</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -1041,7 +1041,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>0.7219210174029452</v>
+        <v>0.5989608433734939</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -1049,7 +1049,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>0.7215528781793845</v>
+        <v>0.5801268406961178</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -1057,7 +1057,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>0.7066934404283802</v>
+        <v>0.5767175368139223</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -1065,7 +1065,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>0.7028781793842036</v>
+        <v>0.5748423694779116</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -1073,7 +1073,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>0.6948125836680056</v>
+        <v>0.5616817269076305</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -1081,7 +1081,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>0.6942101740294513</v>
+        <v>0.5541516064257028</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -1089,7 +1089,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>0.6867135207496654</v>
+        <v>0.544853078982597</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -1097,7 +1097,7 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>0.6607095046854085</v>
+        <v>0.5411954484605087</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -1105,7 +1105,7 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>0.6417001338688088</v>
+        <v>0.5312955153949129</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -1113,7 +1113,7 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>0.6231593038821958</v>
+        <v>0.512386546184739</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -1121,7 +1121,7 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>0.5833668005354753</v>
+        <v>0.4817379518072289</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -1129,7 +1129,7 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>0.5774096385542169</v>
+        <v>0.4728835341365462</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -1137,7 +1137,7 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>0.5407965194109772</v>
+        <v>0.467179718875502</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -1145,7 +1145,7 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>0.5407295850066935</v>
+        <v>0.4563129183400268</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -1153,7 +1153,7 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>0.5201137884872824</v>
+        <v>0.4325502008032128</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -1161,7 +1161,7 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <v>0.5154283801874164</v>
+        <v>0.4266556224899599</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -1169,7 +1169,7 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>0.5061914323962516</v>
+        <v>0.424605421686747</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -1177,7 +1177,7 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>0.5044846050870148</v>
+        <v>0.4092710843373494</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -1185,7 +1185,7 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>0.4871151271753681</v>
+        <v>0.3617807898259706</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -1193,7 +1193,7 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>0.4604752342704148</v>
+        <v>0.3511874163319947</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -1201,7 +1201,7 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>0.4281124497991968</v>
+        <v>0.3510578982597054</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -1209,7 +1209,7 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>0.4268406961178045</v>
+        <v>0.3355652610441766</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -1217,7 +1217,7 @@
         <v>42</v>
       </c>
       <c r="B42">
-        <v>0.409404283801874</v>
+        <v>0.320603078982597</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -1225,7 +1225,7 @@
         <v>43</v>
       </c>
       <c r="B43">
-        <v>0.4075635876840695</v>
+        <v>0.3198450468540829</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -1233,7 +1233,7 @@
         <v>44</v>
       </c>
       <c r="B44">
-        <v>0.392570281124498</v>
+        <v>0.3010756358768407</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -1241,7 +1241,7 @@
         <v>45</v>
       </c>
       <c r="B45">
-        <v>0.3614457831325302</v>
+        <v>0.2933309906291834</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -1249,7 +1249,7 @@
         <v>46</v>
       </c>
       <c r="B46">
-        <v>0.3501338688085676</v>
+        <v>0.290991967871486</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -1257,7 +1257,7 @@
         <v>47</v>
       </c>
       <c r="B47">
-        <v>0.3484939759036143</v>
+        <v>0.2804240294511379</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -1265,7 +1265,7 @@
         <v>48</v>
       </c>
       <c r="B48">
-        <v>0.3482597054886213</v>
+        <v>0.2790625836680055</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -1273,7 +1273,7 @@
         <v>49</v>
       </c>
       <c r="B49">
-        <v>0.3380187416331996</v>
+        <v>0.2514963186077644</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -1281,7 +1281,7 @@
         <v>50</v>
       </c>
       <c r="B50">
-        <v>0.3158299866131193</v>
+        <v>0.2081616465863454</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -1289,7 +1289,7 @@
         <v>51</v>
       </c>
       <c r="B51">
-        <v>0.2827643908969208</v>
+        <v>0.1957757697456492</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -1297,7 +1297,7 @@
         <v>52</v>
       </c>
       <c r="B52">
-        <v>0.2810240963855423</v>
+        <v>0.1932520080321284</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -1305,7 +1305,7 @@
         <v>53</v>
       </c>
       <c r="B53">
-        <v>0.2353078982597057</v>
+        <v>0.1630532128514057</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -1313,7 +1313,7 @@
         <v>54</v>
       </c>
       <c r="B54">
-        <v>0.1649933065595717</v>
+        <v>0.1455799866131192</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -1321,7 +1321,7 @@
         <v>55</v>
       </c>
       <c r="B55">
-        <v>0.1620816599732263</v>
+        <v>0.1386566265060241</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -1329,7 +1329,7 @@
         <v>56</v>
       </c>
       <c r="B56">
-        <v>0.1593373493975905</v>
+        <v>0.1338085676037483</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -1337,7 +1337,7 @@
         <v>57</v>
       </c>
       <c r="B57">
-        <v>0.1529116465863454</v>
+        <v>0.1318045515394912</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -1345,7 +1345,7 @@
         <v>58</v>
       </c>
       <c r="B58">
-        <v>0.1471887550200804</v>
+        <v>0.1068724899598393</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -1353,7 +1353,7 @@
         <v>59</v>
       </c>
       <c r="B59">
-        <v>0.1378848728246318</v>
+        <v>0.1068279785809906</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -1361,7 +1361,7 @@
         <v>60</v>
       </c>
       <c r="B60">
-        <v>0.1372489959839357</v>
+        <v>0.1028396921017404</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -1369,7 +1369,7 @@
         <v>61</v>
       </c>
       <c r="B61">
-        <v>0.1342034805890228</v>
+        <v>0.09811579651941088</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -1377,7 +1377,7 @@
         <v>62</v>
       </c>
       <c r="B62">
-        <v>0.1275435073627847</v>
+        <v>0.09737048192771094</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -1385,7 +1385,7 @@
         <v>63</v>
       </c>
       <c r="B63">
-        <v>0.1181726907630519</v>
+        <v>0.09513152610441766</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -1393,7 +1393,7 @@
         <v>64</v>
       </c>
       <c r="B64">
-        <v>0.1092369477911644</v>
+        <v>0.09325635876840702</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -1401,7 +1401,7 @@
         <v>65</v>
       </c>
       <c r="B65">
-        <v>0.1079651941097726</v>
+        <v>0.08835006693440434</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -1409,7 +1409,7 @@
         <v>66</v>
       </c>
       <c r="B66">
-        <v>0.1025769745649267</v>
+        <v>0.07794477911646583</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -1417,7 +1417,7 @@
         <v>67</v>
       </c>
       <c r="B67">
-        <v>0.08055555555555588</v>
+        <v>0.07615160642570282</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -1425,7 +1425,7 @@
         <v>68</v>
       </c>
       <c r="B68">
-        <v>0.07225568942436406</v>
+        <v>0.07496184738955819</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -1433,7 +1433,7 @@
         <v>69</v>
       </c>
       <c r="B69">
-        <v>0.06870816599732255</v>
+        <v>0.06313520749665319</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -1441,7 +1441,7 @@
         <v>70</v>
       </c>
       <c r="B70">
-        <v>0.05746318607764389</v>
+        <v>0.05806024096385543</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -1449,7 +1449,7 @@
         <v>71</v>
       </c>
       <c r="B71">
-        <v>0.0529116465863454</v>
+        <v>0.05036378848728254</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -1457,7 +1457,7 @@
         <v>72</v>
       </c>
       <c r="B72">
-        <v>0.05227576974564913</v>
+        <v>0.04952074966532807</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -1465,7 +1465,7 @@
         <v>73</v>
       </c>
       <c r="B73">
-        <v>0.05016733601070938</v>
+        <v>0.04360073627844696</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -1473,7 +1473,7 @@
         <v>74</v>
       </c>
       <c r="B74">
-        <v>0.05013386880856785</v>
+        <v>0.035138219544846</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -1481,7 +1481,7 @@
         <v>75</v>
       </c>
       <c r="B75">
-        <v>0.04588353413654628</v>
+        <v>0.03041733601070967</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -1489,7 +1489,7 @@
         <v>76</v>
       </c>
       <c r="B76">
-        <v>0.03678045515394918</v>
+        <v>0.02462650602409638</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -1497,7 +1497,7 @@
         <v>77</v>
       </c>
       <c r="B77">
-        <v>0.02630522088353437</v>
+        <v>0.02350937081659962</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1505,7 +1505,7 @@
         <v>78</v>
       </c>
       <c r="B78">
-        <v>0.0209504685408301</v>
+        <v>0.002700468540830031</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1513,7 +1513,7 @@
         <v>79</v>
       </c>
       <c r="B79">
-        <v>0.0006693440428381381</v>
+        <v>-0.008893239625167332</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1521,7 +1521,7 @@
         <v>80</v>
       </c>
       <c r="B80">
-        <v>-0.002376171352074963</v>
+        <v>-0.00895381526104419</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1529,7 +1529,7 @@
         <v>81</v>
       </c>
       <c r="B81">
-        <v>-0.02891566265060219</v>
+        <v>-0.01861278447121803</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1537,7 +1537,7 @@
         <v>82</v>
       </c>
       <c r="B82">
-        <v>-0.03406961178045537</v>
+        <v>-0.02001840696117807</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1545,7 +1545,7 @@
         <v>83</v>
       </c>
       <c r="B83">
-        <v>-0.04544846050870111</v>
+        <v>-0.02113085676037496</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1553,7 +1553,7 @@
         <v>84</v>
       </c>
       <c r="B84">
-        <v>-0.04889558232931757</v>
+        <v>-0.03407262382864798</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1561,7 +1561,7 @@
         <v>85</v>
       </c>
       <c r="B85">
-        <v>-0.06007362784471226</v>
+        <v>-0.03530689424364131</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1569,7 +1569,7 @@
         <v>86</v>
       </c>
       <c r="B86">
-        <v>-0.06335341365461838</v>
+        <v>-0.03828380187416336</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1577,7 +1577,7 @@
         <v>87</v>
       </c>
       <c r="B87">
-        <v>-0.06603078982597049</v>
+        <v>-0.04913821954484596</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1585,7 +1585,7 @@
         <v>88</v>
       </c>
       <c r="B88">
-        <v>-0.06633199464524742</v>
+        <v>-0.05222155287817934</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1593,7 +1593,7 @@
         <v>89</v>
       </c>
       <c r="B89">
-        <v>-0.06880856760374832</v>
+        <v>-0.05563286479250332</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1601,7 +1601,7 @@
         <v>90</v>
       </c>
       <c r="B90">
-        <v>-0.07038152610441789</v>
+        <v>-0.05630053547523423</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1609,7 +1609,7 @@
         <v>91</v>
       </c>
       <c r="B91">
-        <v>-0.07423025435073616</v>
+        <v>-0.05667771084337353</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1617,7 +1617,7 @@
         <v>92</v>
       </c>
       <c r="B92">
-        <v>-0.07824631860776426</v>
+        <v>-0.06049832663989288</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1625,7 +1625,7 @@
         <v>93</v>
       </c>
       <c r="B93">
-        <v>-0.08540829986613108</v>
+        <v>-0.07001104417670698</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1633,7 +1633,7 @@
         <v>94</v>
       </c>
       <c r="B94">
-        <v>-0.09651941097724248</v>
+        <v>-0.07983734939759041</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1641,7 +1641,7 @@
         <v>95</v>
       </c>
       <c r="B95">
-        <v>-0.1056894243641232</v>
+        <v>-0.08640428380187412</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1649,7 +1649,7 @@
         <v>96</v>
       </c>
       <c r="B96">
-        <v>-0.1199129852744313</v>
+        <v>-0.09595381526104418</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1657,7 +1657,7 @@
         <v>97</v>
       </c>
       <c r="B97">
-        <v>-0.134069611780455</v>
+        <v>-0.1009350736278446</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1665,7 +1665,7 @@
         <v>98</v>
       </c>
       <c r="B98">
-        <v>-0.1351070950468542</v>
+        <v>-0.1029491298527444</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -1673,7 +1673,7 @@
         <v>99</v>
       </c>
       <c r="B99">
-        <v>-0.1362449799196788</v>
+        <v>-0.1042871485943775</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -1681,7 +1681,7 @@
         <v>100</v>
       </c>
       <c r="B100">
-        <v>-0.1531124497991969</v>
+        <v>-0.1251690093708167</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -1689,7 +1689,7 @@
         <v>101</v>
       </c>
       <c r="B101">
-        <v>-0.156593038821954</v>
+        <v>-0.1367784471218207</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -1697,7 +1697,7 @@
         <v>102</v>
       </c>
       <c r="B102">
-        <v>-0.1622824631860776</v>
+        <v>-0.1385836680053547</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -1705,7 +1705,7 @@
         <v>103</v>
       </c>
       <c r="B103">
-        <v>-0.1630187416331996</v>
+        <v>-0.1393597724230254</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -1713,7 +1713,7 @@
         <v>104</v>
       </c>
       <c r="B104">
-        <v>-0.1858768406961176</v>
+        <v>-0.1401425702811247</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -1721,7 +1721,7 @@
         <v>105</v>
       </c>
       <c r="B105">
-        <v>-0.190896921017403</v>
+        <v>-0.1442272423025435</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -1729,7 +1729,7 @@
         <v>106</v>
       </c>
       <c r="B106">
-        <v>-0.2004350736278451</v>
+        <v>-0.1663878848728246</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -1737,7 +1737,7 @@
         <v>107</v>
       </c>
       <c r="B107">
-        <v>-0.2036144578313253</v>
+        <v>-0.1733614457831324</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -1745,7 +1745,7 @@
         <v>108</v>
       </c>
       <c r="B108">
-        <v>-0.234437751004016</v>
+        <v>-0.1866559571619813</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -1753,7 +1753,7 @@
         <v>109</v>
       </c>
       <c r="B109">
-        <v>-0.2368473895582329</v>
+        <v>-0.1887145247657297</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -1761,7 +1761,7 @@
         <v>110</v>
       </c>
       <c r="B110">
-        <v>-0.2428380187416332</v>
+        <v>-0.1893761713520749</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -1769,7 +1769,7 @@
         <v>111</v>
       </c>
       <c r="B111">
-        <v>-0.2525769745649268</v>
+        <v>-0.1956927710843373</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -1777,7 +1777,7 @@
         <v>112</v>
       </c>
       <c r="B112">
-        <v>-0.2596720214190092</v>
+        <v>-0.2059099732262383</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -1785,7 +1785,7 @@
         <v>113</v>
       </c>
       <c r="B113">
-        <v>-0.2626840696117805</v>
+        <v>-0.2135893574297186</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -1793,7 +1793,7 @@
         <v>114</v>
       </c>
       <c r="B114">
-        <v>-0.2890562248995982</v>
+        <v>-0.2258326639892905</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -1801,7 +1801,7 @@
         <v>115</v>
       </c>
       <c r="B115">
-        <v>-0.2952141900937083</v>
+        <v>-0.2483119143239628</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -1809,7 +1809,7 @@
         <v>116</v>
       </c>
       <c r="B116">
-        <v>-0.3129852744310574</v>
+        <v>-0.2532322623828646</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -1817,7 +1817,7 @@
         <v>117</v>
       </c>
       <c r="B117">
-        <v>-0.3133534136546183</v>
+        <v>-0.2556616465863454</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -1825,7 +1825,7 @@
         <v>118</v>
       </c>
       <c r="B118">
-        <v>-0.3168005354752342</v>
+        <v>-0.2709096385542169</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -1833,7 +1833,7 @@
         <v>119</v>
       </c>
       <c r="B119">
-        <v>-0.3372489959839355</v>
+        <v>-0.2722486613119143</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -1841,7 +1841,7 @@
         <v>120</v>
       </c>
       <c r="B120">
-        <v>-0.3507362784471223</v>
+        <v>-0.2928115796519412</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -1849,7 +1849,7 @@
         <v>121</v>
       </c>
       <c r="B121">
-        <v>-0.3720548862115131</v>
+        <v>-0.2964159973226237</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -1857,7 +1857,7 @@
         <v>122</v>
       </c>
       <c r="B122">
-        <v>-0.3839692101740291</v>
+        <v>-0.3064380856760376</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -1865,7 +1865,7 @@
         <v>123</v>
       </c>
       <c r="B123">
-        <v>-0.3849397590361446</v>
+        <v>-0.3066690093708164</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -1873,7 +1873,7 @@
         <v>124</v>
       </c>
       <c r="B124">
-        <v>-0.3855756358768406</v>
+        <v>-0.312965528781794</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -1881,7 +1881,7 @@
         <v>125</v>
       </c>
       <c r="B125">
-        <v>-0.3877175368139223</v>
+        <v>-0.3169139892904953</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -1889,7 +1889,7 @@
         <v>126</v>
       </c>
       <c r="B126">
-        <v>-0.4058567603748326</v>
+        <v>-0.3320274431057562</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -1897,7 +1897,7 @@
         <v>127</v>
       </c>
       <c r="B127">
-        <v>-0.4122155287817938</v>
+        <v>-0.3393902275769746</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -1905,7 +1905,7 @@
         <v>128</v>
       </c>
       <c r="B128">
-        <v>-0.4129183400267744</v>
+        <v>-0.345142235609103</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -1913,7 +1913,7 @@
         <v>129</v>
       </c>
       <c r="B129">
-        <v>-0.4280789825970548</v>
+        <v>-0.3539317269076305</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -1921,7 +1921,7 @@
         <v>130</v>
       </c>
       <c r="B130">
-        <v>-0.4298862115127176</v>
+        <v>-0.3545160642570283</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -1929,7 +1929,7 @@
         <v>131</v>
       </c>
       <c r="B131">
-        <v>-0.4356760374832666</v>
+        <v>-0.3554876171352075</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -1937,7 +1937,7 @@
         <v>132</v>
       </c>
       <c r="B132">
-        <v>-0.4367135207496655</v>
+        <v>-0.3673634538152608</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -1945,7 +1945,7 @@
         <v>133</v>
       </c>
       <c r="B133">
-        <v>-0.4423360107095042</v>
+        <v>-0.3770170682730922</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -1953,7 +1953,7 @@
         <v>134</v>
       </c>
       <c r="B134">
-        <v>-0.458868808567604</v>
+        <v>-0.3770394912985276</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -1961,7 +1961,7 @@
         <v>135</v>
       </c>
       <c r="B135">
-        <v>-0.469511378848728</v>
+        <v>-0.3836084337349398</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -1969,7 +1969,7 @@
         <v>136</v>
       </c>
       <c r="B136">
-        <v>-0.4863788487282465</v>
+        <v>-0.3940304551539492</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -1977,7 +1977,7 @@
         <v>137</v>
       </c>
       <c r="B137">
-        <v>-0.5092034805890224</v>
+        <v>-0.3991017402945113</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -1985,7 +1985,7 @@
         <v>138</v>
       </c>
       <c r="B138">
-        <v>-0.5102744310575635</v>
+        <v>-0.413268072289157</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -1993,7 +1993,7 @@
         <v>139</v>
       </c>
       <c r="B139">
-        <v>-0.5209504685408304</v>
+        <v>-0.4193430388219547</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -2001,7 +2001,7 @@
         <v>140</v>
       </c>
       <c r="B140">
-        <v>-0.5377510040160645</v>
+        <v>-0.4311526104417668</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -2009,7 +2009,7 @@
         <v>141</v>
       </c>
       <c r="B141">
-        <v>-0.5378848728246317</v>
+        <v>-0.4333969210174031</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -2017,7 +2017,7 @@
         <v>142</v>
       </c>
       <c r="B142">
-        <v>-0.5388888888888893</v>
+        <v>-0.4353199464524761</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -2025,7 +2025,7 @@
         <v>143</v>
       </c>
       <c r="B143">
-        <v>-0.5451472556894247</v>
+        <v>-0.4415568942436414</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -2033,7 +2033,7 @@
         <v>144</v>
       </c>
       <c r="B144">
-        <v>-0.5474230254350734</v>
+        <v>-0.4460947121820613</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -2041,7 +2041,7 @@
         <v>145</v>
       </c>
       <c r="B145">
-        <v>-0.5570281124497998</v>
+        <v>-0.4513055555555556</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -2049,7 +2049,7 @@
         <v>146</v>
       </c>
       <c r="B146">
-        <v>-0.5758366800535477</v>
+        <v>-0.4518350066934401</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -2057,7 +2057,7 @@
         <v>147</v>
       </c>
       <c r="B147">
-        <v>-0.5804551539491303</v>
+        <v>-0.4532008032128513</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -2065,7 +2065,7 @@
         <v>148</v>
       </c>
       <c r="B148">
-        <v>-0.5836680053547526</v>
+        <v>-0.4572068273092373</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -2073,7 +2073,7 @@
         <v>149</v>
       </c>
       <c r="B149">
-        <v>-0.5837684069611784</v>
+        <v>-0.4619109772423026</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -2081,7 +2081,7 @@
         <v>150</v>
       </c>
       <c r="B150">
-        <v>-0.6011713520749667</v>
+        <v>-0.4635404953145917</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -2089,7 +2089,7 @@
         <v>151</v>
       </c>
       <c r="B151">
-        <v>-0.6143908969210177</v>
+        <v>-0.4779628514056223</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -2097,7 +2097,7 @@
         <v>152</v>
       </c>
       <c r="B152">
-        <v>-0.6162985274431064</v>
+        <v>-0.495532463186078</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -2105,7 +2105,7 @@
         <v>153</v>
       </c>
       <c r="B153">
-        <v>-0.635508701472557</v>
+        <v>-0.500372155287818</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -2113,7 +2113,7 @@
         <v>154</v>
       </c>
       <c r="B154">
-        <v>-0.6702811244979917</v>
+        <v>-0.5313925702811245</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -2121,7 +2121,7 @@
         <v>155</v>
       </c>
       <c r="B155">
-        <v>-0.6707831325301207</v>
+        <v>-0.5386352074966534</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -2129,7 +2129,7 @@
         <v>156</v>
       </c>
       <c r="B156">
-        <v>-0.6987951807228916</v>
+        <v>-0.561671686746988</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -2137,7 +2137,7 @@
         <v>157</v>
       </c>
       <c r="B157">
-        <v>-0.716834002677376</v>
+        <v>-0.5622479919678717</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -2145,7 +2145,7 @@
         <v>158</v>
       </c>
       <c r="B158">
-        <v>-0.7327978580990631</v>
+        <v>-0.5647456492637213</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -2153,7 +2153,7 @@
         <v>159</v>
       </c>
       <c r="B159">
-        <v>-0.7359437751004014</v>
+        <v>-0.5977921686746986</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -2161,7 +2161,7 @@
         <v>160</v>
       </c>
       <c r="B160">
-        <v>-0.7812248995983936</v>
+        <v>-0.6243959170013385</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -2169,7 +2169,7 @@
         <v>161</v>
       </c>
       <c r="B161">
-        <v>-0.7970883534136548</v>
+        <v>-0.6560967202141897</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -2177,7 +2177,7 @@
         <v>162</v>
       </c>
       <c r="B162">
-        <v>-0.8131526104417675</v>
+        <v>-0.6617125167336009</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -2185,7 +2185,7 @@
         <v>163</v>
       </c>
       <c r="B163">
-        <v>-0.8142904953145921</v>
+        <v>-0.6632680722891565</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -2193,7 +2193,7 @@
         <v>164</v>
       </c>
       <c r="B164">
-        <v>-0.8191432396251679</v>
+        <v>-0.6800635876840692</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -2201,7 +2201,7 @@
         <v>165</v>
       </c>
       <c r="B165">
-        <v>-0.824765729585007</v>
+        <v>-0.6892530120481928</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -2209,7 +2209,7 @@
         <v>166</v>
       </c>
       <c r="B166">
-        <v>-0.8260374832663988</v>
+        <v>-0.6907151941097721</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -2217,7 +2217,7 @@
         <v>167</v>
       </c>
       <c r="B167">
-        <v>-0.8576974564926371</v>
+        <v>-0.6994705488621145</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -2225,7 +2225,7 @@
         <v>168</v>
       </c>
       <c r="B168">
-        <v>-0.8943105756358769</v>
+        <v>-0.7505706157965196</v>
       </c>
     </row>
   </sheetData>
